--- a/DWAVJobKorea/Data/Config.xlsx
+++ b/DWAVJobKorea/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\07_RPA\workspace\DWAVJobKorea\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_20210928\RPA project\DWAVRPA\DWAVJobKorea\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE55BEA-5082-405C-A970-096D97E0DE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1170" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-28920" yWindow="1170" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Code" sheetId="4" r:id="rId3"/>
     <sheet name="Email" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +80,6 @@
   </si>
   <si>
     <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpakorea@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,207 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>[RPA_TypeA]KS_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연도별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보고서작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결과보고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안녕하세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.
-[RPA_TypeA]KS_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연도별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보고서작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결과물을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보내드립니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감사합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Window Credential Manager Email_Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\RPA\07_RPA\workspace\DWAVJobKorea\Result\RecruitList.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -483,14 +273,130 @@
   </si>
   <si>
     <t>RecruitExcelPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System1_Account</t>
+  </si>
+  <si>
+    <t>Window Credential Manager System1_Account</t>
+  </si>
+  <si>
+    <t>SARAM_IN_URL</t>
+  </si>
+  <si>
+    <t>https://www.saramin.co.kr/zf_user/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> URL</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채용정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안내</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요.
+채용정보_결과물을 보내드립니다.
+감사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisu229@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisu229@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Result\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채용정보</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,13 +447,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="129"/>
@@ -571,6 +470,22 @@
       <color theme="1"/>
       <name val="돋움"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -597,12 +512,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,21 +545,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -952,21 +877,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B78B8AA-D076-46A8-B429-FDCCC375A88F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -978,31 +903,31 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1010,41 +935,47 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1058,14 +989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="1" bestFit="1" customWidth="1"/>
@@ -1073,7 +1004,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1084,125 +1015,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169A3B5F-FDC3-4684-99BD-1A5AD34E573E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
@@ -1210,7 +1151,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1228,15 +1169,15 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1246,15 +1187,15 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1264,7 +1205,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1276,7 +1217,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1288,7 +1229,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1300,7 +1241,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1309,7 +1250,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1321,7 +1262,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1333,10 +1274,10 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1345,12 +1286,12 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1359,7 +1300,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1371,7 +1312,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1383,7 +1324,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1395,7 +1336,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1407,7 +1348,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1419,7 +1360,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1431,7 +1372,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1443,7 +1384,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1455,7 +1396,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1467,7 +1408,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1479,7 +1420,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1491,7 +1432,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1503,7 +1444,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1515,7 +1456,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1527,7 +1468,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1539,7 +1480,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1551,7 +1492,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1571,14 +1512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.75" style="1" customWidth="1"/>
@@ -1586,7 +1527,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1599,47 +1540,49 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>0</v>
@@ -1647,12 +1590,12 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="49.5">
+    <row r="6" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>16</v>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>11</v>
@@ -1660,69 +1603,69 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1731,7 +1674,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/DWAVJobKorea/Data/Config.xlsx
+++ b/DWAVJobKorea/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_20210928\RPA project\DWAVRPA\DWAVJobKorea\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\07_RPA\workspace\DWAVRPA\DWAVRPA\DWAVJobKorea\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A8C9B-12D2-4401-8C83-F9031A1D8911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1170" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -22,12 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -276,9 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>System1_Account</t>
-  </si>
-  <si>
     <t>Window Credential Manager System1_Account</t>
   </si>
   <si>
@@ -368,14 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jisu229@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jisu229@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Result\</t>
     </r>
@@ -389,14 +373,25 @@
       </rPr>
       <t>채용정보</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System1_Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rainbow160@naver.com</t>
+  </si>
+  <si>
+    <t>rainbow160@naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,21 +872,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -903,7 +898,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -915,7 +910,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -927,7 +922,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -939,7 +934,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -951,31 +946,31 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -989,14 +984,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="1" bestFit="1" customWidth="1"/>
@@ -1004,7 +999,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1015,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1026,7 +1021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1037,98 +1032,98 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1136,14 +1131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
@@ -1151,7 +1146,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1164,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1187,7 +1182,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1205,7 +1200,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1217,7 +1212,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1229,7 +1224,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1241,7 +1236,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1250,7 +1245,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1262,7 +1257,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1274,7 +1269,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
@@ -1286,12 +1281,12 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1300,7 +1295,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1312,7 +1307,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1324,7 +1319,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1336,7 +1331,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1348,7 +1343,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1360,7 +1355,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1372,7 +1367,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1384,7 +1379,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1396,7 +1391,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1408,7 +1403,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1420,7 +1415,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1432,7 +1427,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1444,7 +1439,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1456,7 +1451,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1468,7 +1463,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1480,7 +1475,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1492,7 +1487,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1512,14 +1507,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.75" style="1" customWidth="1"/>
@@ -1527,7 +1522,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1540,12 +1535,12 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1553,7 +1548,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1559,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1577,12 +1572,12 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>0</v>
@@ -1590,12 +1585,12 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="49.5">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>11</v>
@@ -1603,69 +1598,69 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1675,10 +1670,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DWAVJobKorea/Data/Config.xlsx
+++ b/DWAVJobKorea/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\07_RPA\workspace\DWAVRPA\DWAVRPA\DWAVJobKorea\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_20210928\RPA project\DWAVRPA\DWAVJobKorea\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A8C9B-12D2-4401-8C83-F9031A1D8911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,18 +379,307 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rainbow160@naver.com</t>
-  </si>
-  <si>
-    <t>rainbow160@naver.com</t>
+    <t>jisu229@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisu229@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로세스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발송하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안녕하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채용정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문의하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,6 +845,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,21 +1163,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -898,7 +1189,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -910,7 +1201,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -922,7 +1213,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -934,7 +1225,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -946,7 +1237,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -958,19 +1249,19 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -984,14 +1275,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="1" bestFit="1" customWidth="1"/>
@@ -999,7 +1290,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1021,7 +1312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1032,7 +1323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1043,7 +1334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1054,76 +1345,76 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1131,14 +1422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
@@ -1146,7 +1437,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1455,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1473,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1200,7 +1491,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1212,7 +1503,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1224,7 +1515,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1236,7 +1527,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1245,7 +1536,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1257,7 +1548,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1269,7 +1560,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
@@ -1281,12 +1572,12 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1295,7 +1586,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1307,7 +1598,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1319,7 +1610,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1331,7 +1622,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1343,7 +1634,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1355,7 +1646,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1367,7 +1658,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1379,7 +1670,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1391,7 +1682,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1403,7 +1694,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1415,7 +1706,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1427,7 +1718,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1439,7 +1730,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1451,7 +1742,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1463,7 +1754,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1475,7 +1766,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1487,7 +1778,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1507,14 +1798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.75" style="1" customWidth="1"/>
@@ -1522,7 +1813,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1535,12 +1826,12 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1548,7 +1839,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1559,12 +1850,12 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -1572,7 +1863,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1876,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="49.5">
+    <row r="6" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1598,69 +1889,75 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1670,9 +1967,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/DWAVJobKorea/Data/Config.xlsx
+++ b/DWAVJobKorea/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_20210928\RPA project\DWAVRPA\DWAVJobKorea\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\07_RPA\workspace\DWAVRPA\DWAVRPA\DWAVJobKorea\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A77E9B-78CF-424B-8F32-3F32718836DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-28920" yWindow="1170" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -359,22 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Result\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>채용정보</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>System1_Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,6 +656,22 @@
         <family val="2"/>
       </rPr>
       <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Result\{Keyword}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채용정보</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,8 +679,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,21 +1164,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1190,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1201,7 +1202,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1213,7 +1214,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1225,7 +1226,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1237,31 +1238,31 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1275,14 +1276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="1" bestFit="1" customWidth="1"/>
@@ -1290,7 +1291,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1323,18 +1324,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1345,76 +1346,76 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1422,14 +1423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
@@ -1437,7 +1438,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1456,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1473,7 +1474,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1491,7 +1492,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1503,7 +1504,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1515,7 +1516,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1527,7 +1528,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1536,7 +1537,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1548,7 +1549,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1560,7 +1561,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
@@ -1572,12 +1573,12 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1586,7 +1587,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1598,7 +1599,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1610,7 +1611,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1622,7 +1623,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1634,7 +1635,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1646,7 +1647,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1658,7 +1659,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1670,7 +1671,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1682,7 +1683,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1694,7 +1695,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1706,7 +1707,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1718,7 +1719,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1730,7 +1731,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1742,7 +1743,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1754,7 +1755,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1766,7 +1767,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1778,7 +1779,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1798,14 +1799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.75" style="1" customWidth="1"/>
@@ -1813,7 +1814,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1826,12 +1827,12 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1839,7 +1840,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1850,12 +1851,12 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -1863,7 +1864,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1876,7 +1877,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="49.5">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1889,75 +1890,75 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1967,8 +1968,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/DWAVJobKorea/Data/Config.xlsx
+++ b/DWAVJobKorea/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\07_RPA\workspace\DWAVRPA\DWAVRPA\DWAVJobKorea\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A77E9B-78CF-424B-8F32-3F32718836DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3420C089-A547-493A-8AF4-392F5F76A07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1170" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11445" yWindow="1380" windowWidth="15885" windowHeight="11850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,14 +192,6 @@
   </si>
   <si>
     <t>SearchWord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색하고 싶은 단어를 입력하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -673,6 +665,52 @@
       </rPr>
       <t>채용정보</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KakaoChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">카카오톡채널 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kakao_Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡채널의 로그인 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카톡채널에서 직접 입력할 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://center-pf.kakao.com/_FSarb/chats</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +887,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1168,7 +1209,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1204,13 +1245,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1240,20 +1281,26 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
@@ -1280,7 +1327,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1315,40 +1362,47 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="C6" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
@@ -1416,9 +1470,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{605A93EC-EC8E-47F9-87BC-0A8CDD7D2A1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1427,7 +1482,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A4:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1461,7 +1516,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>23</v>
@@ -1478,11 +1533,11 @@
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
+      <c r="B3" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1832,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1856,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -1869,7 +1924,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>0</v>
@@ -1882,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>11</v>
@@ -1892,13 +1947,13 @@
     </row>
     <row r="7" spans="1:5" ht="45">
       <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>46</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
